--- a/data/negative_signals/Indirectly connected (A-X-B) - Goserelin - Upper gastrointestinal bleeding.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Goserelin - Upper gastrointestinal bleeding.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="363">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,6 +173,69 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4048474</t>
+  </si>
+  <si>
+    <t>hemorrhage</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>5805729</t>
+  </si>
+  <si>
+    <t>upper gastrointestinal hemorrhage</t>
+  </si>
+  <si>
+    <t>81998241</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>67998096</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>137241956</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>75067257</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>96492375</t>
+  </si>
+  <si>
+    <t>137241955</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>137372357</t>
+  </si>
+  <si>
+    <t>77266534</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>51521373</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
     <t>301179</t>
   </si>
   <si>
@@ -182,37 +245,205 @@
     <t>Living Beings</t>
   </si>
   <si>
-    <t>5805729</t>
-  </si>
-  <si>
-    <t>upper gastrointestinal hemorrhage</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>174981886</t>
+    <t>108771178</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>150197238</t>
+    <t>83745936</t>
   </si>
   <si>
     <t>occurs in</t>
   </si>
   <si>
-    <t>121052694</t>
+    <t>54699238</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
-    <t>123725981</t>
-  </si>
-  <si>
-    <t>affects</t>
+    <t>57323173</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>51478523</t>
+  </si>
+  <si>
+    <t>75916617</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>132426034</t>
+  </si>
+  <si>
+    <t>is not part of</t>
+  </si>
+  <si>
+    <t>54554151</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>53557822</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>127484335</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>57307883</t>
+  </si>
+  <si>
+    <t>52591486</t>
+  </si>
+  <si>
+    <t>57805976</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51329725</t>
+  </si>
+  <si>
+    <t>98693987</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>4027719</t>
+  </si>
+  <si>
+    <t>fibroid tumor</t>
+  </si>
+  <si>
+    <t>16208437</t>
+  </si>
+  <si>
+    <t>115986567</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>55745404</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>3202620</t>
+  </si>
+  <si>
+    <t>intervention regimes</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>114226246</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>56807097</t>
+  </si>
+  <si>
+    <t>437699</t>
+  </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>16208430</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>62248895</t>
+  </si>
+  <si>
+    <t>4048571</t>
+  </si>
+  <si>
+    <t>hepatic coma</t>
+  </si>
+  <si>
+    <t>16208423</t>
+  </si>
+  <si>
+    <t>88031998</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>347140</t>
+  </si>
+  <si>
+    <t>hepatic encephalopathy</t>
+  </si>
+  <si>
+    <t>16208422</t>
+  </si>
+  <si>
+    <t>103447870</t>
+  </si>
+  <si>
+    <t>78862534</t>
+  </si>
+  <si>
+    <t>82735507</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>51263445</t>
+  </si>
+  <si>
+    <t>55664113</t>
+  </si>
+  <si>
+    <t>51263402</t>
+  </si>
+  <si>
+    <t>55664782</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>55664929</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>74446723</t>
+  </si>
+  <si>
+    <t>73816891</t>
   </si>
   <si>
     <t>5308239</t>
@@ -221,151 +452,532 @@
     <t>woman</t>
   </si>
   <si>
-    <t>129664181</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>120253920</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>140062238</t>
+    <t>73657147</t>
   </si>
   <si>
     <t>is location of</t>
   </si>
   <si>
-    <t>118634601</t>
-  </si>
-  <si>
-    <t>119184207</t>
-  </si>
-  <si>
-    <t>159612690</t>
-  </si>
-  <si>
-    <t>347140</t>
-  </si>
-  <si>
-    <t>hepatic encephalopathy</t>
-  </si>
-  <si>
-    <t>82439886</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>145349657</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>169671742</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>149112319</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>3202620</t>
-  </si>
-  <si>
-    <t>intervention regimes</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>180350349</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>123207495</t>
-  </si>
-  <si>
-    <t>437699</t>
-  </si>
-  <si>
-    <t>hepatitis</t>
-  </si>
-  <si>
-    <t>82439903</t>
-  </si>
-  <si>
-    <t>128634246</t>
-  </si>
-  <si>
-    <t>4048571</t>
-  </si>
-  <si>
-    <t>hepatic coma</t>
-  </si>
-  <si>
-    <t>82439888</t>
-  </si>
-  <si>
-    <t>152501024</t>
-  </si>
-  <si>
-    <t>4048474</t>
-  </si>
-  <si>
-    <t>hemorrhage</t>
-  </si>
-  <si>
-    <t>148468404</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>141500835</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>203430773</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>131531894</t>
-  </si>
-  <si>
-    <t>162695617</t>
-  </si>
-  <si>
-    <t>143661283</t>
-  </si>
-  <si>
-    <t>117728164</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>203561734</t>
-  </si>
-  <si>
-    <t>203430776</t>
-  </si>
-  <si>
-    <t>is parent of</t>
+    <t>53940416</t>
+  </si>
+  <si>
+    <t>52393694</t>
+  </si>
+  <si>
+    <t>63196863</t>
+  </si>
+  <si>
+    <t>93323743</t>
+  </si>
+  <si>
+    <t>52877336</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>82965664</t>
+  </si>
+  <si>
+    <t>122248500</t>
+  </si>
+  <si>
+    <t>54057841</t>
+  </si>
+  <si>
+    <t>69361573</t>
+  </si>
+  <si>
+    <t>54057902</t>
+  </si>
+  <si>
+    <t>51563689</t>
+  </si>
+  <si>
+    <t>60534273</t>
+  </si>
+  <si>
+    <t>66664549</t>
+  </si>
+  <si>
+    <t>88033969</t>
+  </si>
+  <si>
+    <t>71124879</t>
+  </si>
+  <si>
+    <t>58140816</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>54529413</t>
+  </si>
+  <si>
+    <t>115479323</t>
+  </si>
+  <si>
+    <t>101750684</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>57378623</t>
+  </si>
+  <si>
+    <t>82966224</t>
+  </si>
+  <si>
+    <t>51370789</t>
+  </si>
+  <si>
+    <t>81758050</t>
+  </si>
+  <si>
+    <t>444020</t>
+  </si>
+  <si>
+    <t>neoplasm metastasis</t>
+  </si>
+  <si>
+    <t>51370890</t>
+  </si>
+  <si>
+    <t>97621407</t>
+  </si>
+  <si>
+    <t>71103942</t>
+  </si>
+  <si>
+    <t>3144340</t>
+  </si>
+  <si>
+    <t>injection therapy</t>
+  </si>
+  <si>
+    <t>78734609</t>
+  </si>
+  <si>
+    <t>55908541</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>82886043</t>
+  </si>
+  <si>
+    <t>61408825</t>
+  </si>
+  <si>
+    <t>2518307</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>112723341</t>
+  </si>
+  <si>
+    <t>51263093</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>81998477</t>
+  </si>
+  <si>
+    <t>68225563</t>
+  </si>
+  <si>
+    <t>119267642</t>
+  </si>
+  <si>
+    <t>55721196</t>
+  </si>
+  <si>
+    <t>65822493</t>
+  </si>
+  <si>
+    <t>64202804</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>57224390</t>
+  </si>
+  <si>
+    <t>55721271</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>112518550</t>
+  </si>
+  <si>
+    <t>837405</t>
+  </si>
+  <si>
+    <t>malignant neoplasms</t>
+  </si>
+  <si>
+    <t>67071209</t>
+  </si>
+  <si>
+    <t>119392192</t>
+  </si>
+  <si>
+    <t>75828382</t>
+  </si>
+  <si>
+    <t>77367354</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>55270966</t>
+  </si>
+  <si>
+    <t>55271075</t>
+  </si>
+  <si>
+    <t>116166654</t>
+  </si>
+  <si>
+    <t>61440825</t>
+  </si>
+  <si>
+    <t>69033934</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>114602743</t>
+  </si>
+  <si>
+    <t>110829794</t>
+  </si>
+  <si>
+    <t>127524554</t>
+  </si>
+  <si>
+    <t>66957015</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>89052690</t>
+  </si>
+  <si>
+    <t>51563435</t>
+  </si>
+  <si>
+    <t>89816964</t>
+  </si>
+  <si>
+    <t>77651873</t>
+  </si>
+  <si>
+    <t>83279346</t>
+  </si>
+  <si>
+    <t>66750786</t>
+  </si>
+  <si>
+    <t>2966450</t>
+  </si>
+  <si>
+    <t>cancer patient</t>
+  </si>
+  <si>
+    <t>74452716</t>
+  </si>
+  <si>
+    <t>78731638</t>
+  </si>
+  <si>
+    <t>720920</t>
+  </si>
+  <si>
+    <t>salvage therapy</t>
+  </si>
+  <si>
+    <t>90540525</t>
+  </si>
+  <si>
+    <t>119371588</t>
+  </si>
+  <si>
+    <t>65077</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>98681731</t>
+  </si>
+  <si>
+    <t>94632524</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>91703072</t>
+  </si>
+  <si>
+    <t>63541786</t>
+  </si>
+  <si>
+    <t>64273753</t>
+  </si>
+  <si>
+    <t>104609662</t>
+  </si>
+  <si>
+    <t>65910669</t>
+  </si>
+  <si>
+    <t>4027069</t>
+  </si>
+  <si>
+    <t>octreotide</t>
+  </si>
+  <si>
+    <t>85849131</t>
+  </si>
+  <si>
+    <t>81879485</t>
+  </si>
+  <si>
+    <t>94633024</t>
+  </si>
+  <si>
+    <t>111705</t>
+  </si>
+  <si>
+    <t>therapeutic radiology procedure</t>
+  </si>
+  <si>
+    <t>85237099</t>
+  </si>
+  <si>
+    <t>88515928</t>
+  </si>
+  <si>
+    <t>86287096</t>
+  </si>
+  <si>
+    <t>112585281</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>115393033</t>
+  </si>
+  <si>
+    <t>93370995</t>
+  </si>
+  <si>
+    <t>94509228</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>60493696</t>
+  </si>
+  <si>
+    <t>60493916</t>
+  </si>
+  <si>
+    <t>51977415</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>114910998</t>
+  </si>
+  <si>
+    <t>128043744</t>
+  </si>
+  <si>
+    <t>is method of</t>
+  </si>
+  <si>
+    <t>77834398</t>
+  </si>
+  <si>
+    <t>87936938</t>
+  </si>
+  <si>
+    <t>63565599</t>
+  </si>
+  <si>
+    <t>52493153</t>
+  </si>
+  <si>
+    <t>116316546</t>
+  </si>
+  <si>
+    <t>61921959</t>
+  </si>
+  <si>
+    <t>5229143</t>
+  </si>
+  <si>
+    <t>iron deficiency anemia</t>
+  </si>
+  <si>
+    <t>72185700</t>
+  </si>
+  <si>
+    <t>121959974</t>
+  </si>
+  <si>
+    <t>4040830</t>
+  </si>
+  <si>
+    <t>abnormal degeneration</t>
+  </si>
+  <si>
+    <t>131962124</t>
+  </si>
+  <si>
+    <t>115576704</t>
+  </si>
+  <si>
+    <t>4028709</t>
+  </si>
+  <si>
+    <t>neoplasms</t>
+  </si>
+  <si>
+    <t>131577782</t>
+  </si>
+  <si>
+    <t>110266256</t>
+  </si>
+  <si>
+    <t>70355483</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>79730599</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>74992623</t>
+  </si>
+  <si>
+    <t>75163179</t>
+  </si>
+  <si>
+    <t>69884283</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>86435337</t>
+  </si>
+  <si>
+    <t>67189888</t>
+  </si>
+  <si>
+    <t>64096687</t>
+  </si>
+  <si>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>109463966</t>
+  </si>
+  <si>
+    <t>51903019</t>
+  </si>
+  <si>
+    <t>130438015</t>
+  </si>
+  <si>
+    <t>89588312</t>
+  </si>
+  <si>
+    <t>53005627</t>
+  </si>
+  <si>
+    <t>54665073</t>
+  </si>
+  <si>
+    <t>356203</t>
+  </si>
+  <si>
+    <t>asthenia</t>
+  </si>
+  <si>
+    <t>110097960</t>
+  </si>
+  <si>
+    <t>72930440</t>
   </si>
   <si>
     <t>3204683</t>
@@ -377,400 +989,40 @@
     <t>Activities &amp; Behaviors</t>
   </si>
   <si>
-    <t>147891710</t>
-  </si>
-  <si>
-    <t>121945162</t>
-  </si>
-  <si>
-    <t>171953239</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>122035480</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>122035674</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>117456189</t>
-  </si>
-  <si>
-    <t>122034423</t>
-  </si>
-  <si>
-    <t>117456246</t>
-  </si>
-  <si>
-    <t>137705798</t>
-  </si>
-  <si>
-    <t>138343510</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>120894091</t>
-  </si>
-  <si>
-    <t>181677563</t>
-  </si>
-  <si>
-    <t>167950175</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>149350342</t>
-  </si>
-  <si>
-    <t>117567843</t>
-  </si>
-  <si>
-    <t>123868233</t>
-  </si>
-  <si>
-    <t>148212724</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>188463246</t>
-  </si>
-  <si>
-    <t>120436180</t>
-  </si>
-  <si>
-    <t>135862742</t>
-  </si>
-  <si>
-    <t>149349655</t>
-  </si>
-  <si>
-    <t>120436074</t>
-  </si>
-  <si>
-    <t>117766359</t>
-  </si>
-  <si>
-    <t>154227840</t>
-  </si>
-  <si>
-    <t>133020994</t>
-  </si>
-  <si>
-    <t>126968989</t>
-  </si>
-  <si>
-    <t>134946300</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>124630603</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>444020</t>
-  </si>
-  <si>
-    <t>neoplasm metastasis</t>
-  </si>
-  <si>
-    <t>163819593</t>
-  </si>
-  <si>
-    <t>117567933</t>
-  </si>
-  <si>
-    <t>137515526</t>
-  </si>
-  <si>
-    <t>3144340</t>
-  </si>
-  <si>
-    <t>injection therapy</t>
-  </si>
-  <si>
-    <t>145110437</t>
-  </si>
-  <si>
-    <t>118297536</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>149312879</t>
-  </si>
-  <si>
-    <t>127852232</t>
-  </si>
-  <si>
-    <t>4028709</t>
-  </si>
-  <si>
-    <t>neoplasms</t>
-  </si>
-  <si>
-    <t>136750704</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>197738500</t>
-  </si>
-  <si>
-    <t>176490812</t>
-  </si>
-  <si>
-    <t>141459858</t>
-  </si>
-  <si>
-    <t>141547832</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>146115959</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>136382481</t>
-  </si>
-  <si>
-    <t>4027069</t>
-  </si>
-  <si>
-    <t>octreotide</t>
-  </si>
-  <si>
-    <t>152271952</t>
-  </si>
-  <si>
-    <t>160912294</t>
-  </si>
-  <si>
-    <t>148281684</t>
-  </si>
-  <si>
-    <t>2518307</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>178898377</t>
-  </si>
-  <si>
-    <t>117455091</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>177006497</t>
-  </si>
-  <si>
-    <t>193733417</t>
-  </si>
-  <si>
-    <t>180809783</t>
-  </si>
-  <si>
-    <t>133436786</t>
-  </si>
-  <si>
-    <t>2966450</t>
-  </si>
-  <si>
-    <t>cancer patient</t>
-  </si>
-  <si>
-    <t>140804851</t>
-  </si>
-  <si>
-    <t>145128531</t>
-  </si>
-  <si>
-    <t>812094</t>
-  </si>
-  <si>
-    <t>operative surgical procedures</t>
-  </si>
-  <si>
-    <t>154142773</t>
-  </si>
-  <si>
-    <t>is method of</t>
-  </si>
-  <si>
-    <t>194251789</t>
-  </si>
-  <si>
-    <t>181115485</t>
-  </si>
-  <si>
-    <t>144288862</t>
-  </si>
-  <si>
-    <t>129973349</t>
-  </si>
-  <si>
-    <t>118754159</t>
-  </si>
-  <si>
-    <t>128394064</t>
-  </si>
-  <si>
-    <t>182539055</t>
-  </si>
-  <si>
-    <t>720920</t>
-  </si>
-  <si>
-    <t>salvage therapy</t>
-  </si>
-  <si>
-    <t>156776143</t>
-  </si>
-  <si>
-    <t>185583941</t>
-  </si>
-  <si>
-    <t>65077</t>
-  </si>
-  <si>
-    <t>plasma</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>164880413</t>
-  </si>
-  <si>
-    <t>160806986</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>121694378</t>
-  </si>
-  <si>
-    <t>121694550</t>
-  </si>
-  <si>
-    <t>135401008</t>
-  </si>
-  <si>
-    <t>127828844</t>
-  </si>
-  <si>
-    <t>182389091</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>155212517</t>
-  </si>
-  <si>
-    <t>155973108</t>
-  </si>
-  <si>
-    <t>117766097</t>
-  </si>
-  <si>
-    <t>144088830</t>
-  </si>
-  <si>
-    <t>130146329</t>
-  </si>
-  <si>
-    <t>149700192</t>
-  </si>
-  <si>
-    <t>4027719</t>
-  </si>
-  <si>
-    <t>fibroid tumor</t>
-  </si>
-  <si>
-    <t>182123502</t>
-  </si>
-  <si>
-    <t>82439918</t>
-  </si>
-  <si>
-    <t>122126977</t>
-  </si>
-  <si>
-    <t>3737354</t>
-  </si>
-  <si>
-    <t>prophylactic treatment</t>
-  </si>
-  <si>
-    <t>175687184</t>
-  </si>
-  <si>
-    <t>119286478</t>
-  </si>
-  <si>
-    <t>155857335</t>
-  </si>
-  <si>
-    <t>121005053</t>
-  </si>
-  <si>
-    <t>196643003</t>
-  </si>
-  <si>
-    <t>118099137</t>
+    <t>81523280</t>
+  </si>
+  <si>
+    <t>55547689</t>
+  </si>
+  <si>
+    <t>105733573</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>84782058</t>
+  </si>
+  <si>
+    <t>101158168</t>
+  </si>
+  <si>
+    <t>101028763</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>119040500</t>
+  </si>
+  <si>
+    <t>69283370</t>
   </si>
   <si>
     <t>2940375</t>
@@ -779,22 +1031,37 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>122036277</t>
-  </si>
-  <si>
-    <t>144288056</t>
-  </si>
-  <si>
-    <t>187274522</t>
-  </si>
-  <si>
-    <t>140278395</t>
-  </si>
-  <si>
-    <t>126741331</t>
-  </si>
-  <si>
-    <t>117561342</t>
+    <t>77833580</t>
+  </si>
+  <si>
+    <t>121128511</t>
+  </si>
+  <si>
+    <t>55665859</t>
+  </si>
+  <si>
+    <t>51356902</t>
+  </si>
+  <si>
+    <t>73805637</t>
+  </si>
+  <si>
+    <t>60344438</t>
+  </si>
+  <si>
+    <t>2636029</t>
+  </si>
+  <si>
+    <t>cooling</t>
+  </si>
+  <si>
+    <t>Phenomena</t>
+  </si>
+  <si>
+    <t>80695508</t>
+  </si>
+  <si>
+    <t>51977214</t>
   </si>
   <si>
     <t>2635237</t>
@@ -803,16 +1070,16 @@
     <t>adjuvant therapy</t>
   </si>
   <si>
-    <t>133005294</t>
-  </si>
-  <si>
-    <t>133005166</t>
-  </si>
-  <si>
-    <t>197579907</t>
-  </si>
-  <si>
-    <t>160480186</t>
+    <t>66673525</t>
+  </si>
+  <si>
+    <t>66673253</t>
+  </si>
+  <si>
+    <t>131379011</t>
+  </si>
+  <si>
+    <t>94368033</t>
   </si>
   <si>
     <t>2506281</t>
@@ -821,250 +1088,19 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>183543029</t>
-  </si>
-  <si>
-    <t>120198477</t>
-  </si>
-  <si>
-    <t>118908998</t>
-  </si>
-  <si>
-    <t>170746180</t>
-  </si>
-  <si>
-    <t>120188829</t>
-  </si>
-  <si>
-    <t>111705</t>
-  </si>
-  <si>
-    <t>therapeutic radiology procedure</t>
-  </si>
-  <si>
-    <t>151608716</t>
-  </si>
-  <si>
-    <t>154688397</t>
-  </si>
-  <si>
-    <t>178759671</t>
-  </si>
-  <si>
-    <t>152688945</t>
-  </si>
-  <si>
-    <t>837405</t>
-  </si>
-  <si>
-    <t>malignant neoplasms</t>
-  </si>
-  <si>
-    <t>133412889</t>
-  </si>
-  <si>
-    <t>185609476</t>
-  </si>
-  <si>
-    <t>143765124</t>
-  </si>
-  <si>
-    <t>142223980</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>181590245</t>
-  </si>
-  <si>
-    <t>160703773</t>
-  </si>
-  <si>
-    <t>159553704</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>126900359</t>
-  </si>
-  <si>
-    <t>126900544</t>
-  </si>
-  <si>
-    <t>118222244</t>
-  </si>
-  <si>
-    <t>5229143</t>
-  </si>
-  <si>
-    <t>iron deficiency anemia</t>
-  </si>
-  <si>
-    <t>138575208</t>
-  </si>
-  <si>
-    <t>188149980</t>
-  </si>
-  <si>
-    <t>4040830</t>
-  </si>
-  <si>
-    <t>abnormal degeneration</t>
-  </si>
-  <si>
-    <t>198172725</t>
-  </si>
-  <si>
-    <t>181775887</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>157870310</t>
-  </si>
-  <si>
-    <t>170813885</t>
-  </si>
-  <si>
-    <t>129934987</t>
-  </si>
-  <si>
-    <t>132310978</t>
-  </si>
-  <si>
-    <t>127508301</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>142304658</t>
-  </si>
-  <si>
-    <t>193637920</t>
-  </si>
-  <si>
-    <t>is not administered to</t>
-  </si>
-  <si>
-    <t>117678850</t>
-  </si>
-  <si>
-    <t>198616513</t>
-  </si>
-  <si>
-    <t>is not part of</t>
-  </si>
-  <si>
-    <t>119874203</t>
-  </si>
-  <si>
-    <t>120921780</t>
-  </si>
-  <si>
-    <t>117524068</t>
-  </si>
-  <si>
-    <t>124207329</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>164892621</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>123718242</t>
-  </si>
-  <si>
-    <t>118894819</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>152798359</t>
-  </si>
-  <si>
-    <t>130496423</t>
-  </si>
-  <si>
-    <t>130611488</t>
-  </si>
-  <si>
-    <t>356203</t>
-  </si>
-  <si>
-    <t>asthenia</t>
-  </si>
-  <si>
-    <t>176307612</t>
-  </si>
-  <si>
-    <t>139328505</t>
-  </si>
-  <si>
-    <t>3131611</t>
-  </si>
-  <si>
-    <t>observation parameter</t>
-  </si>
-  <si>
-    <t>151207174</t>
-  </si>
-  <si>
-    <t>167138693</t>
-  </si>
-  <si>
-    <t>167356479</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>185256238</t>
-  </si>
-  <si>
-    <t>135719406</t>
-  </si>
-  <si>
-    <t>2636029</t>
-  </si>
-  <si>
-    <t>cooling</t>
-  </si>
-  <si>
-    <t>Phenomena</t>
-  </si>
-  <si>
-    <t>147140903</t>
-  </si>
-  <si>
-    <t>118222138</t>
+    <t>52674572</t>
+  </si>
+  <si>
+    <t>117345405</t>
+  </si>
+  <si>
+    <t>104549196</t>
+  </si>
+  <si>
+    <t>53886839</t>
+  </si>
+  <si>
+    <t>53871119</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1305,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71.0</v>
+        <v>5041.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1296,36 +1332,66 @@
         <v>57</v>
       </c>
       <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>51.0</v>
+        <v>71.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1337,13 +1403,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -1352,48 +1418,36 @@
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
         <v>71</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.0</v>
+        <v>54.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1405,51 +1459,93 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" t="s">
         <v>80</v>
       </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="AA4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD4" t="s">
         <v>82</v>
       </c>
-      <c r="N4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" t="s">
-        <v>87</v>
+      <c r="AE4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1461,13 +1557,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -1476,24 +1572,30 @@
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1505,13 +1607,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1520,19 +1622,19 @@
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1651,13 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1564,19 +1666,19 @@
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1593,13 +1695,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1608,66 +1710,24 @@
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" t="s">
-        <v>111</v>
-      </c>
-      <c r="T8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" t="s">
-        <v>112</v>
-      </c>
-      <c r="V8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W8" t="s">
-        <v>113</v>
-      </c>
-      <c r="X8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1679,40 +1739,46 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s">
         <v>120</v>
       </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -1729,13 +1795,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1744,54 +1810,54 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="R10" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="S10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="T10" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="U10" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="V10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1803,13 +1869,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1818,30 +1884,48 @@
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="M11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
+      <c r="S11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1853,13 +1937,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1868,36 +1952,78 @@
         <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="M12" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="R12" t="s">
-        <v>64</v>
+        <v>139</v>
+      </c>
+      <c r="S12" t="s">
+        <v>159</v>
+      </c>
+      <c r="T12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" t="s">
+        <v>160</v>
+      </c>
+      <c r="V12" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s">
+        <v>161</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1909,13 +2035,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -1924,78 +2050,30 @@
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>151</v>
-      </c>
-      <c r="R13" t="s">
-        <v>127</v>
-      </c>
-      <c r="S13" t="s">
-        <v>152</v>
-      </c>
-      <c r="T13" t="s">
-        <v>114</v>
-      </c>
-      <c r="U13" t="s">
-        <v>153</v>
-      </c>
-      <c r="V13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13" t="s">
-        <v>154</v>
-      </c>
-      <c r="X13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2007,13 +2085,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2022,25 +2100,31 @@
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -2057,13 +2141,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2072,24 +2156,30 @@
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2101,13 +2191,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2116,19 +2206,19 @@
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -2145,13 +2235,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2160,49 +2250,19 @@
         <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="M17" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>180</v>
-      </c>
-      <c r="R17" t="s">
-        <v>85</v>
-      </c>
-      <c r="S17" t="s">
-        <v>181</v>
-      </c>
-      <c r="T17" t="s">
-        <v>182</v>
-      </c>
-      <c r="U17" t="s">
-        <v>183</v>
-      </c>
-      <c r="V17" t="s">
-        <v>184</v>
-      </c>
-      <c r="W17" t="s">
-        <v>185</v>
-      </c>
-      <c r="X17" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -2219,13 +2279,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2234,30 +2294,24 @@
         <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" t="s">
-        <v>190</v>
-      </c>
-      <c r="P18" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2269,10 +2323,10 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
         <v>55</v>
@@ -2284,19 +2338,61 @@
         <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>199</v>
+      </c>
+      <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>200</v>
+      </c>
+      <c r="T19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V19" t="s">
+        <v>202</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -2313,13 +2409,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2328,31 +2424,31 @@
         <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="Q20" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
@@ -2369,13 +2465,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -2384,24 +2480,42 @@
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>218</v>
+      </c>
+      <c r="R21" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2413,13 +2527,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -2428,60 +2542,36 @@
         <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="O22" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="R22" t="s">
-        <v>114</v>
-      </c>
-      <c r="S22" t="s">
-        <v>212</v>
-      </c>
-      <c r="T22" t="s">
-        <v>107</v>
-      </c>
-      <c r="U22" t="s">
-        <v>213</v>
-      </c>
-      <c r="V22" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" t="s">
-        <v>214</v>
-      </c>
-      <c r="X22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2493,13 +2583,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -2508,24 +2598,48 @@
         <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M23" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>231</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" t="s">
+        <v>232</v>
+      </c>
+      <c r="T23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" t="s">
+        <v>233</v>
+      </c>
+      <c r="V23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2537,13 +2651,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -2552,19 +2666,19 @@
         <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M24" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -2581,13 +2695,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -2596,37 +2710,19 @@
         <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M25" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s">
-        <v>129</v>
-      </c>
-      <c r="O25" t="s">
-        <v>229</v>
-      </c>
-      <c r="P25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>230</v>
-      </c>
-      <c r="R25" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" t="s">
-        <v>231</v>
-      </c>
-      <c r="T25" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -2643,13 +2739,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -2658,43 +2754,19 @@
         <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s">
-        <v>160</v>
-      </c>
-      <c r="O26" t="s">
-        <v>236</v>
-      </c>
-      <c r="P26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S26" t="s">
-        <v>238</v>
-      </c>
-      <c r="T26" t="s">
-        <v>85</v>
-      </c>
-      <c r="U26" t="s">
-        <v>239</v>
-      </c>
-      <c r="V26" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -2711,13 +2783,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -2726,25 +2798,37 @@
         <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="O27" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P27" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>252</v>
+      </c>
+      <c r="R27" t="s">
+        <v>65</v>
+      </c>
+      <c r="S27" t="s">
+        <v>253</v>
+      </c>
+      <c r="T27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -2761,13 +2845,13 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -2776,43 +2860,25 @@
         <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="O28" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>250</v>
-      </c>
-      <c r="R28" t="s">
-        <v>60</v>
-      </c>
-      <c r="S28" t="s">
-        <v>251</v>
-      </c>
-      <c r="T28" t="s">
-        <v>85</v>
-      </c>
-      <c r="U28" t="s">
-        <v>252</v>
-      </c>
-      <c r="V28" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -2829,13 +2895,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -2844,48 +2910,36 @@
         <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O29" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="R29" t="s">
-        <v>109</v>
-      </c>
-      <c r="S29" t="s">
-        <v>259</v>
-      </c>
-      <c r="T29" t="s">
-        <v>83</v>
-      </c>
-      <c r="U29" t="s">
-        <v>260</v>
-      </c>
-      <c r="V29" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2897,13 +2951,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -2912,36 +2966,30 @@
         <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="O30" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>266</v>
-      </c>
-      <c r="R30" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -2953,13 +3001,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -2968,42 +3016,30 @@
         <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="O31" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>272</v>
-      </c>
-      <c r="R31" t="s">
-        <v>66</v>
-      </c>
-      <c r="S31" t="s">
-        <v>273</v>
-      </c>
-      <c r="T31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -3015,13 +3051,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3030,31 +3066,55 @@
         <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P32" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Q32" t="s">
+        <v>281</v>
+      </c>
+      <c r="R32" t="s">
         <v>279</v>
       </c>
-      <c r="R32" t="s">
-        <v>85</v>
+      <c r="S32" t="s">
+        <v>282</v>
+      </c>
+      <c r="T32" t="s">
+        <v>65</v>
+      </c>
+      <c r="U32" t="s">
+        <v>283</v>
+      </c>
+      <c r="V32" t="s">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -3071,13 +3131,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3086,31 +3146,19 @@
         <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" t="s">
-        <v>284</v>
-      </c>
-      <c r="P33" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>285</v>
-      </c>
-      <c r="R33" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -3127,13 +3175,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3142,25 +3190,19 @@
         <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
-      </c>
-      <c r="O34" t="s">
-        <v>290</v>
-      </c>
-      <c r="P34" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -3177,10 +3219,10 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>55</v>
@@ -3192,25 +3234,49 @@
         <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="M35" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P35" t="s">
-        <v>64</v>
+        <v>299</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>300</v>
+      </c>
+      <c r="R35" t="s">
+        <v>301</v>
+      </c>
+      <c r="S35" t="s">
+        <v>302</v>
+      </c>
+      <c r="T35" t="s">
+        <v>110</v>
+      </c>
+      <c r="U35" t="s">
+        <v>303</v>
+      </c>
+      <c r="V35" t="s">
+        <v>205</v>
+      </c>
+      <c r="W35" t="s">
+        <v>304</v>
+      </c>
+      <c r="X35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -3227,13 +3293,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3242,19 +3308,25 @@
         <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M36" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="O36" t="s">
+        <v>309</v>
+      </c>
+      <c r="P36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -3271,13 +3343,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -3286,19 +3358,43 @@
         <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M37" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>108</v>
+      </c>
+      <c r="O37" t="s">
+        <v>314</v>
+      </c>
+      <c r="P37" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>315</v>
+      </c>
+      <c r="R37" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" t="s">
+        <v>316</v>
+      </c>
+      <c r="T37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U37" t="s">
+        <v>317</v>
+      </c>
+      <c r="V37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -3315,13 +3411,13 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -3330,37 +3426,19 @@
         <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="M38" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="N38" t="s">
-        <v>107</v>
-      </c>
-      <c r="O38" t="s">
-        <v>308</v>
-      </c>
-      <c r="P38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>309</v>
-      </c>
-      <c r="R38" t="s">
-        <v>160</v>
-      </c>
-      <c r="S38" t="s">
-        <v>310</v>
-      </c>
-      <c r="T38" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -3377,13 +3455,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -3392,73 +3470,25 @@
         <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K39" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="M39" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="O39" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="P39" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>317</v>
-      </c>
-      <c r="R39" t="s">
-        <v>318</v>
-      </c>
-      <c r="S39" t="s">
-        <v>319</v>
-      </c>
-      <c r="T39" t="s">
-        <v>72</v>
-      </c>
-      <c r="U39" t="s">
-        <v>320</v>
-      </c>
-      <c r="V39" t="s">
-        <v>70</v>
-      </c>
-      <c r="W39" t="s">
-        <v>321</v>
-      </c>
-      <c r="X39" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -3481,7 +3511,7 @@
         <v>329</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3490,25 +3520,25 @@
         <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K40" t="s">
         <v>330</v>
       </c>
       <c r="L40" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="M40" t="s">
         <v>331</v>
       </c>
       <c r="N40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O40" t="s">
         <v>332</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -3531,7 +3561,7 @@
         <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -3540,19 +3570,19 @@
         <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
         <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M41" t="s">
         <v>336</v>
       </c>
       <c r="N41" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -3575,7 +3605,7 @@
         <v>338</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -3584,25 +3614,43 @@
         <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K42" t="s">
         <v>339</v>
       </c>
       <c r="L42" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M42" t="s">
         <v>340</v>
       </c>
       <c r="N42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O42" t="s">
         <v>341</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>342</v>
+      </c>
+      <c r="R42" t="s">
+        <v>73</v>
+      </c>
+      <c r="S42" t="s">
+        <v>343</v>
+      </c>
+      <c r="T42" t="s">
+        <v>68</v>
+      </c>
+      <c r="U42" t="s">
+        <v>344</v>
+      </c>
+      <c r="V42" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43">
@@ -3619,13 +3667,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>347</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -3634,19 +3682,19 @@
         <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M43" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -3663,13 +3711,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
-        <v>348</v>
+        <v>113</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -3678,19 +3726,93 @@
         <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="M44" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N44" t="s">
-        <v>66</v>
+        <v>139</v>
+      </c>
+      <c r="O44" t="s">
+        <v>354</v>
+      </c>
+      <c r="P44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>355</v>
+      </c>
+      <c r="R44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s">
+        <v>110</v>
+      </c>
+      <c r="M45" t="s">
+        <v>359</v>
+      </c>
+      <c r="N45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" t="s">
+        <v>360</v>
+      </c>
+      <c r="P45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>361</v>
+      </c>
+      <c r="R45" t="s">
+        <v>68</v>
+      </c>
+      <c r="S45" t="s">
+        <v>362</v>
+      </c>
+      <c r="T45" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
